--- a/InsuranceAgency/Content/Reports/UsersReportResult.xlsx
+++ b/InsuranceAgency/Content/Reports/UsersReportResult.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Список пользователей системы</t>
   </si>
@@ -62,7 +62,7 @@
     <t>19-05-1992</t>
   </si>
   <si>
-    <t>89209440243</t>
+    <t>89209430243</t>
   </si>
   <si>
     <t>mishina@mail.ru</t>
@@ -86,79 +86,97 @@
     <t>novikov@mail.ru</t>
   </si>
   <si>
-    <t>TyurinaPol</t>
-  </si>
-  <si>
-    <t>Тюрина Полина Павловна</t>
-  </si>
-  <si>
-    <t>11-05-2001</t>
-  </si>
-  <si>
-    <t>89208340033</t>
-  </si>
-  <si>
-    <t>TyurinaPol@mail.ru</t>
+    <t>aleksandrov</t>
+  </si>
+  <si>
+    <t>Александров Филипп Сергеевич</t>
+  </si>
+  <si>
+    <t>05-09-1999</t>
+  </si>
+  <si>
+    <t>89665556734</t>
+  </si>
+  <si>
+    <t>aleksandrov@mail.ru</t>
+  </si>
+  <si>
+    <t>morozova</t>
+  </si>
+  <si>
+    <t>Морозова Александра Максимовна</t>
+  </si>
+  <si>
+    <t>15-03-1998</t>
+  </si>
+  <si>
+    <t>89340043434</t>
+  </si>
+  <si>
+    <t>morozova@mail.ru</t>
+  </si>
+  <si>
+    <t>shestakovdaniil</t>
+  </si>
+  <si>
+    <t>Шестаков Даниил Данилович</t>
+  </si>
+  <si>
+    <t>01-01-1990</t>
+  </si>
+  <si>
+    <t>89969798752</t>
+  </si>
+  <si>
+    <t>aspshestakovdaniil@gmail.com</t>
   </si>
   <si>
     <t>Пользователь</t>
   </si>
   <si>
-    <t>aleksandrov</t>
-  </si>
-  <si>
-    <t>Александров Филипп Сергеевич</t>
-  </si>
-  <si>
-    <t>05-09-1999</t>
-  </si>
-  <si>
-    <t>89665556734</t>
-  </si>
-  <si>
-    <t>aleksandrov@mail.ru</t>
-  </si>
-  <si>
-    <t>morozova</t>
-  </si>
-  <si>
-    <t>Морозова Александра Максимовна</t>
-  </si>
-  <si>
-    <t>15-03-1998</t>
-  </si>
-  <si>
-    <t>89340043434</t>
-  </si>
-  <si>
-    <t>morozova@mail.ru</t>
-  </si>
-  <si>
     <t>AgencyAdmin</t>
   </si>
   <si>
-    <t>03-09-2021</t>
+    <t>01-09-2021</t>
   </si>
   <si>
     <t>89209380662</t>
   </si>
   <si>
-    <t>lyam.irina@yandex.ru</t>
+    <t>agencyaadm@gmail.com</t>
   </si>
   <si>
     <t>Администратор</t>
   </si>
   <si>
-    <t>LyamIrina</t>
-  </si>
-  <si>
-    <t>Лямина Ирина Алексеевна</t>
-  </si>
-  <si>
-    <t>25-04-2001</t>
-  </si>
-  <si>
-    <t>lyamIrina@yandex.ru</t>
+    <t>gavrilovboris</t>
+  </si>
+  <si>
+    <t>Гаврилов Борис Дмитриевич</t>
+  </si>
+  <si>
+    <t>15-03-1999</t>
+  </si>
+  <si>
+    <t>89017654595</t>
+  </si>
+  <si>
+    <t>laba4laba44@gmail.com</t>
+  </si>
+  <si>
+    <t>morozovasofi</t>
+  </si>
+  <si>
+    <t>Морозова Софья Яновна</t>
+  </si>
+  <si>
+    <t>15-08-1979</t>
+  </si>
+  <si>
+    <t>89347650895</t>
+  </si>
+  <si>
+    <t>aspmorozovasofi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -529,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -646,7 +664,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +672,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>13</v>
@@ -677,22 +695,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -732,13 +750,36 @@
         <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
